--- a/meta/Type Calculations.xlsx
+++ b/meta/Type Calculations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skipbaker/Tresors/jbkr/meta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skipbaker/Tresors/Software/jbkr/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153703F9-E77D-AD47-92AD-C48DDAC79E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F32B896-FCCE-904E-B328-91EA2B46A4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38380" windowHeight="20600" xr2:uid="{B37BC8AA-E6DA-F14C-8CD6-2B9EC2ABA39B}"/>
   </bookViews>
@@ -20,6 +20,14 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -641,31 +649,25 @@
   <dimension ref="A1:AE45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="2" hidden="1" customWidth="1"/>
-    <col min="5" max="7" width="10.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="7" width="10.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15" style="1" customWidth="1"/>
     <col min="9" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.83203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="20" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="17" width="10.83203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="21.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="17" width="10.83203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="21.6640625" style="1" customWidth="1"/>
     <col min="19" max="20" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.83203125" style="1" customWidth="1"/>
     <col min="22" max="22" width="20" style="1" customWidth="1"/>
-    <col min="23" max="23" width="10.83203125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="10.83203125" style="2" hidden="1" customWidth="1"/>
-    <col min="25" max="27" width="10.83203125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="21.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="27" width="10.83203125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="21.6640625" style="1" customWidth="1"/>
     <col min="29" max="30" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="16384" width="10.83203125" style="1"/>
@@ -895,17 +897,17 @@
         <v>700</v>
       </c>
       <c r="E16" s="12">
-        <f>CEILING(C16*E$14,8)</f>
+        <f t="shared" ref="E16:E21" si="1">CEILING(C16*E$14,8)</f>
         <v>184</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="16">
-        <f t="shared" ref="G16:G26" si="1">(C16/8)*(C16/8)*G$13</f>
+        <f t="shared" ref="G16:G26" si="2">(C16/8)*(C16/8)*G$13</f>
         <v>-10.218372242639505</v>
       </c>
       <c r="I16" s="22"/>
       <c r="M16" s="9">
-        <f t="shared" ref="M16:M22" si="2">M17*M$13</f>
+        <f t="shared" ref="M16:M22" si="3">M17*M$13</f>
         <v>119.65504888919789</v>
       </c>
       <c r="N16" s="5">
@@ -918,12 +920,12 @@
       </c>
       <c r="P16" s="13"/>
       <c r="Q16" s="16">
-        <f t="shared" ref="Q16:Q26" si="3">(M16/8)*(M16/8)*Q$13</f>
+        <f t="shared" ref="Q16:Q26" si="4">(M16/8)*(M16/8)*Q$13</f>
         <v>-4.4741658514613549</v>
       </c>
       <c r="S16" s="22"/>
       <c r="W16" s="9">
-        <f t="shared" ref="W16:W22" si="4">W17*W$13</f>
+        <f t="shared" ref="W16:W22" si="5">W17*W$13</f>
         <v>76.2939453125</v>
       </c>
       <c r="X16" s="5">
@@ -936,7 +938,7 @@
       </c>
       <c r="Z16" s="13"/>
       <c r="AA16" s="16">
-        <f t="shared" ref="AA16:AA26" si="5">(W16/8)*(W16/8)*AA$13</f>
+        <f t="shared" ref="AA16:AA26" si="6">(W16/8)*(W16/8)*AA$13</f>
         <v>-1.8189894035458565</v>
       </c>
       <c r="AC16" s="22"/>
@@ -947,25 +949,25 @@
         <v>127.88406701881038</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" ref="D17:D22" si="6">MIN((D$23+300),(D18*D$13))</f>
+        <f t="shared" ref="D17:D22" si="7">MIN((D$23+300),(D18*D$13))</f>
         <v>700</v>
       </c>
       <c r="E17" s="12">
-        <f>CEILING(C17*E$14,8)</f>
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.1107295616473705</v>
       </c>
       <c r="I17" s="22"/>
       <c r="M17" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>89.763727598798113</v>
       </c>
       <c r="N17" s="5">
-        <f t="shared" ref="N17:N22" si="7">MIN((N$23+300),(N18*N$13))</f>
+        <f t="shared" ref="N17:N22" si="8">MIN((N$23+300),(N18*N$13))</f>
         <v>700</v>
       </c>
       <c r="O17" s="12">
@@ -974,16 +976,16 @@
       </c>
       <c r="P17" s="13"/>
       <c r="Q17" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.5179771226347594</v>
       </c>
       <c r="S17" s="22"/>
       <c r="W17" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61.03515625</v>
       </c>
       <c r="X17" s="5">
-        <f t="shared" ref="X17:X22" si="8">MIN((X$23+300),(X18*X$13))</f>
+        <f t="shared" ref="X17:X22" si="9">MIN((X$23+300),(X18*X$13))</f>
         <v>700</v>
       </c>
       <c r="Y17" s="12">
@@ -992,7 +994,7 @@
       </c>
       <c r="Z17" s="13"/>
       <c r="AA17" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.1641532182693481</v>
       </c>
       <c r="AC17" s="22"/>
@@ -1007,12 +1009,12 @@
         <v>700</v>
       </c>
       <c r="E18" s="12">
-        <f>CEILING(C18*E$14,8)</f>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.5561367341173891</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -1020,11 +1022,11 @@
       </c>
       <c r="I18" s="22"/>
       <c r="M18" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>67.339630606750276</v>
       </c>
       <c r="N18" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>700</v>
       </c>
       <c r="O18" s="12">
@@ -1033,7 +1035,7 @@
       </c>
       <c r="P18" s="13"/>
       <c r="Q18" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.4170705782042432</v>
       </c>
       <c r="R18" s="4" t="s">
@@ -1041,11 +1043,11 @@
       </c>
       <c r="S18" s="22"/>
       <c r="W18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48.828125</v>
       </c>
       <c r="X18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>700</v>
       </c>
       <c r="Y18" s="12">
@@ -1054,7 +1056,7 @@
       </c>
       <c r="Z18" s="13"/>
       <c r="AA18" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.74505805969238281</v>
       </c>
       <c r="AB18" s="4" t="s">
@@ -1068,11 +1070,11 @@
         <v>63.961349837055984</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>640.72265625</v>
       </c>
       <c r="E19" s="12">
-        <f>CEILING(C19*E$14,8)</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="F19" s="14">
@@ -1080,17 +1082,17 @@
         <v>80</v>
       </c>
       <c r="G19" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.2784544603057066</v>
       </c>
       <c r="I19" s="22"/>
       <c r="J19" s="15"/>
       <c r="M19" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50.517352293135993</v>
       </c>
       <c r="N19" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>640.72265625</v>
       </c>
       <c r="O19" s="12">
@@ -1102,17 +1104,17 @@
         <v>64</v>
       </c>
       <c r="Q19" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.79750090084650382</v>
       </c>
       <c r="S19" s="22"/>
       <c r="T19" s="15"/>
       <c r="W19" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39.0625</v>
       </c>
       <c r="X19" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>640.72265625</v>
       </c>
       <c r="Y19" s="12">
@@ -1124,7 +1126,7 @@
         <v>48</v>
       </c>
       <c r="AA19" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.476837158203125</v>
       </c>
       <c r="AC19" s="22"/>
@@ -1136,11 +1138,11 @@
         <v>45.234335103999989</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>569.53125</v>
       </c>
       <c r="E20" s="12">
-        <f>CEILING(C20*E$14,8)</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="F20" s="14">
@@ -1148,15 +1150,15 @@
         <v>56</v>
       </c>
       <c r="G20" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.63942033509405183</v>
       </c>
       <c r="M20" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.897488591999995</v>
       </c>
       <c r="N20" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>569.53125</v>
       </c>
       <c r="O20" s="12">
@@ -1168,7 +1170,7 @@
         <v>48</v>
       </c>
       <c r="Q20" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.44881863799399058</v>
       </c>
       <c r="S20" s="23" t="s">
@@ -1178,11 +1180,11 @@
         <v>23</v>
       </c>
       <c r="W20" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31.25</v>
       </c>
       <c r="X20" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>569.53125</v>
       </c>
       <c r="Y20" s="12">
@@ -1194,7 +1196,7 @@
         <v>40</v>
       </c>
       <c r="AA20" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.30517578125</v>
       </c>
       <c r="AC20" s="23" t="s">
@@ -1215,7 +1217,7 @@
         <v>506.25</v>
       </c>
       <c r="E21" s="12">
-        <f>CEILING(C21*E$14,8)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="F21" s="14">
@@ -1223,7 +1225,7 @@
         <v>40</v>
       </c>
       <c r="G21" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.3198067491852799</v>
       </c>
       <c r="I21" s="23" t="s">
@@ -1234,7 +1236,7 @@
       </c>
       <c r="K21" s="17"/>
       <c r="M21" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28.430223999999999</v>
       </c>
       <c r="N21" s="5">
@@ -1246,11 +1248,11 @@
         <v>40</v>
       </c>
       <c r="P21" s="13">
-        <f t="shared" ref="P21:P26" si="9">CEILING(M21*P$13,8)</f>
+        <f t="shared" ref="P21:P26" si="10">CEILING(M21*P$13,8)</f>
         <v>40</v>
       </c>
       <c r="Q21" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.25258676146567999</v>
       </c>
       <c r="S21" s="23" t="s">
@@ -1260,7 +1262,7 @@
         <v>22</v>
       </c>
       <c r="W21" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="X21" s="5">
@@ -1272,11 +1274,11 @@
         <v>32</v>
       </c>
       <c r="Z21" s="13">
-        <f t="shared" ref="Z21:Z26" si="10">CEILING(W21*Z$13,8)</f>
+        <f t="shared" ref="Z21:Z26" si="11">CEILING(W21*Z$13,8)</f>
         <v>40</v>
       </c>
       <c r="AA21" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.1953125</v>
       </c>
       <c r="AC21" s="23" t="s">
@@ -1294,7 +1296,7 @@
         <v>22.623999999999999</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>450</v>
       </c>
       <c r="E22" s="11">
@@ -1306,7 +1308,7 @@
         <v>32</v>
       </c>
       <c r="G22" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.15995167999999998</v>
       </c>
       <c r="I22" s="23" t="s">
@@ -1318,11 +1320,11 @@
       <c r="K22" s="17"/>
       <c r="L22" s="8"/>
       <c r="M22" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.327999999999999</v>
       </c>
       <c r="N22" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>450</v>
       </c>
       <c r="O22" s="11">
@@ -1330,20 +1332,20 @@
         <v>32</v>
       </c>
       <c r="P22" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="Q22" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.14215111999999999</v>
       </c>
       <c r="V22" s="8"/>
       <c r="W22" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="X22" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>450</v>
       </c>
       <c r="Y22" s="11">
@@ -1351,11 +1353,11 @@
         <v>24</v>
       </c>
       <c r="Z22" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="AA22" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.125</v>
       </c>
       <c r="AE22" s="17"/>
@@ -1381,7 +1383,7 @@
         <v>24</v>
       </c>
       <c r="G23" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.08</v>
       </c>
       <c r="H23" s="4" t="s">
@@ -1406,11 +1408,11 @@
         <v>24</v>
       </c>
       <c r="P23" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="Q23" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.08</v>
       </c>
       <c r="R23" s="4" t="s">
@@ -1433,11 +1435,11 @@
         <v>24</v>
       </c>
       <c r="Z23" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
       <c r="AA23" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.08</v>
       </c>
       <c r="AB23" s="4" t="s">
@@ -1461,7 +1463,7 @@
         <v>24</v>
       </c>
       <c r="G24" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.5555555555555566E-2</v>
       </c>
       <c r="H24" s="4" t="s">
@@ -1479,11 +1481,11 @@
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="Q24" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.5555555555555566E-2</v>
       </c>
       <c r="R24" s="4" t="s">
@@ -1499,11 +1501,11 @@
         <v>400</v>
       </c>
       <c r="Z24" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
       <c r="AA24" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-5.5555555555555566E-2</v>
       </c>
       <c r="AB24" s="4" t="s">
@@ -1514,11 +1516,11 @@
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C25" s="9">
-        <f t="shared" ref="C25:C26" si="11">C24*(1/C$14)</f>
+        <f t="shared" ref="C25:C26" si="12">C24*(1/C$14)</f>
         <v>11.111111111111112</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" ref="D25:D26" si="12">MAX((D$23-0),(D24*(1/D$13)))</f>
+        <f t="shared" ref="D25:D26" si="13">MAX((D$23-0),(D24*(1/D$13)))</f>
         <v>400</v>
       </c>
       <c r="F25" s="13">
@@ -1526,45 +1528,45 @@
         <v>16</v>
       </c>
       <c r="G25" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.8580246913580259E-2</v>
       </c>
       <c r="I25" s="23"/>
       <c r="J25" s="15"/>
       <c r="K25" s="17"/>
       <c r="M25" s="9">
-        <f t="shared" ref="M25:M26" si="13">M24*(1/M$14)</f>
+        <f t="shared" ref="M25:M26" si="14">M24*(1/M$14)</f>
         <v>11.111111111111112</v>
       </c>
       <c r="N25" s="5">
-        <f t="shared" ref="N25:N26" si="14">MAX((N$23-0),(N24*(1/N$13)))</f>
+        <f t="shared" ref="N25:N26" si="15">MAX((N$23-0),(N24*(1/N$13)))</f>
         <v>400</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="Q25" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3.8580246913580259E-2</v>
       </c>
       <c r="S25" s="23"/>
       <c r="T25" s="15"/>
       <c r="W25" s="9">
-        <f t="shared" ref="W25:W26" si="15">W24*(1/W$14)</f>
+        <f t="shared" ref="W25:W26" si="16">W24*(1/W$14)</f>
         <v>11.111111111111112</v>
       </c>
       <c r="X25" s="5">
-        <f t="shared" ref="X25:X26" si="16">MAX((X$23-0),(X24*(1/X$13)))</f>
+        <f t="shared" ref="X25:X26" si="17">MAX((X$23-0),(X24*(1/X$13)))</f>
         <v>400</v>
       </c>
       <c r="Z25" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="AA25" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.8580246913580259E-2</v>
       </c>
       <c r="AC25" s="23"/>
@@ -1573,11 +1575,11 @@
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C26" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.2592592592592613</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>400</v>
       </c>
       <c r="F26" s="13">
@@ -1585,41 +1587,41 @@
         <v>16</v>
       </c>
       <c r="G26" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.6791838134430739E-2</v>
       </c>
       <c r="K26" s="17"/>
       <c r="M26" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.2592592592592613</v>
       </c>
       <c r="N26" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>400</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="13">
-        <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="Q26" s="16">
-        <f t="shared" si="3"/>
-        <v>-2.6791838134430739E-2</v>
-      </c>
-      <c r="W26" s="9">
-        <f t="shared" si="15"/>
-        <v>9.2592592592592613</v>
-      </c>
-      <c r="X26" s="5">
-        <f t="shared" si="16"/>
-        <v>400</v>
-      </c>
-      <c r="Z26" s="13">
         <f t="shared" si="10"/>
         <v>16</v>
       </c>
+      <c r="Q26" s="16">
+        <f t="shared" si="4"/>
+        <v>-2.6791838134430739E-2</v>
+      </c>
+      <c r="W26" s="9">
+        <f t="shared" si="16"/>
+        <v>9.2592592592592613</v>
+      </c>
+      <c r="X26" s="5">
+        <f t="shared" si="17"/>
+        <v>400</v>
+      </c>
+      <c r="Z26" s="13">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
       <c r="AA26" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.6791838134430739E-2</v>
       </c>
       <c r="AE26" s="17"/>
@@ -1706,37 +1708,37 @@
     </row>
     <row r="35" spans="4:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="D35" s="5">
-        <f t="shared" ref="D35:D41" si="17">MIN((D$42+100),(D36*D$32))</f>
+        <f t="shared" ref="D35:D41" si="18">MIN((D$42+100),(D36*D$32))</f>
         <v>420</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="5">
-        <f t="shared" ref="N35:N41" si="18">MIN((N$42+100),(N36*N$32))</f>
+        <f t="shared" ref="N35:N41" si="19">MIN((N$42+100),(N36*N$32))</f>
         <v>420</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="X35" s="5">
-        <f t="shared" ref="X35:X41" si="19">MIN((X$42+100),(X36*X$32))</f>
+        <f t="shared" ref="X35:X41" si="20">MIN((X$42+100),(X36*X$32))</f>
         <v>420</v>
       </c>
     </row>
     <row r="36" spans="4:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="D36" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>420</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>420</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="X36" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>420</v>
       </c>
     </row>
@@ -1769,71 +1771,71 @@
     </row>
     <row r="38" spans="4:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="D38" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>414.77030499871995</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>414.77030499871995</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="X38" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>414.77030499871995</v>
       </c>
     </row>
     <row r="39" spans="4:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="D39" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>388.72568415999996</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>388.72568415999996</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="X39" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>388.72568415999996</v>
       </c>
     </row>
     <row r="40" spans="4:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="D40" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>364.31647999999996</v>
       </c>
       <c r="N40" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>364.31647999999996</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="X40" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>364.31647999999996</v>
       </c>
     </row>
     <row r="41" spans="4:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="D41" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>341.44</v>
       </c>
       <c r="N41" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>341.44</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="X41" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>341.44</v>
       </c>
     </row>
@@ -1882,31 +1884,31 @@
     </row>
     <row r="44" spans="4:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="D44" s="5">
-        <f t="shared" ref="D44:D45" si="20">MAX((D$42-100),D43*(1/D$32))</f>
+        <f t="shared" ref="D44:D45" si="21">MAX((D$42-100),D43*(1/D$32))</f>
         <v>281.0743011131421</v>
       </c>
       <c r="N44" s="5">
-        <f t="shared" ref="N44:N45" si="21">MAX((N$42-100),N43*(1/N$32))</f>
+        <f t="shared" ref="N44:N45" si="22">MAX((N$42-100),N43*(1/N$32))</f>
         <v>281.0743011131421</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="X44" s="5">
-        <f t="shared" ref="X44:X45" si="22">MAX((X$42-100),X43*(1/X$32))</f>
+        <f t="shared" ref="X44:X45" si="23">MAX((X$42-100),X43*(1/X$32))</f>
         <v>281.0743011131421</v>
       </c>
     </row>
     <row r="45" spans="4:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="D45" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>263.42483703199821</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>12</v>
       </c>
       <c r="N45" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>263.42483703199821</v>
       </c>
       <c r="O45" s="2"/>
@@ -1916,7 +1918,7 @@
         <v>12</v>
       </c>
       <c r="X45" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>263.42483703199821</v>
       </c>
       <c r="AB45" s="4" t="s">

--- a/meta/Type Calculations.xlsx
+++ b/meta/Type Calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skipbaker/Tresors/Software/jbkr/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F32B896-FCCE-904E-B328-91EA2B46A4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93DF35A1-E1DE-7E4F-A3D7-5AAFC287366C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38380" windowHeight="20600" xr2:uid="{B37BC8AA-E6DA-F14C-8CD6-2B9EC2ABA39B}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Base msmt_x0009__x0009__x0009_Base x .004_x000a__x0009__x0009__x0009__x000a_4_x0009__x0009_" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -115,7 +116,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -200,8 +201,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,8 +228,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -244,11 +257,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -318,9 +347,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -649,7 +682,7 @@
   <dimension ref="A1:AE45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1516,11 +1549,11 @@
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C25" s="9">
-        <f t="shared" ref="C25:C26" si="12">C24*(1/C$14)</f>
+        <f>C24*(1/C$14)</f>
         <v>11.111111111111112</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" ref="D25:D26" si="13">MAX((D$23-0),(D24*(1/D$13)))</f>
+        <f>MAX((D$23-0),(D24*(1/D$13)))</f>
         <v>400</v>
       </c>
       <c r="F25" s="13">
@@ -1535,11 +1568,11 @@
       <c r="J25" s="15"/>
       <c r="K25" s="17"/>
       <c r="M25" s="9">
-        <f t="shared" ref="M25:M26" si="14">M24*(1/M$14)</f>
+        <f>M24*(1/M$14)</f>
         <v>11.111111111111112</v>
       </c>
       <c r="N25" s="5">
-        <f t="shared" ref="N25:N26" si="15">MAX((N$23-0),(N24*(1/N$13)))</f>
+        <f>MAX((N$23-0),(N24*(1/N$13)))</f>
         <v>400</v>
       </c>
       <c r="O25" s="2"/>
@@ -1554,11 +1587,11 @@
       <c r="S25" s="23"/>
       <c r="T25" s="15"/>
       <c r="W25" s="9">
-        <f t="shared" ref="W25:W26" si="16">W24*(1/W$14)</f>
+        <f>W24*(1/W$14)</f>
         <v>11.111111111111112</v>
       </c>
       <c r="X25" s="5">
-        <f t="shared" ref="X25:X26" si="17">MAX((X$23-0),(X24*(1/X$13)))</f>
+        <f>MAX((X$23-0),(X24*(1/X$13)))</f>
         <v>400</v>
       </c>
       <c r="Z25" s="13">
@@ -1575,11 +1608,11 @@
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C26" s="9">
-        <f t="shared" si="12"/>
+        <f>C25*(1/C$14)</f>
         <v>9.2592592592592613</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="13"/>
+        <f>MAX((D$23-0),(D25*(1/D$13)))</f>
         <v>400</v>
       </c>
       <c r="F26" s="13">
@@ -1592,11 +1625,11 @@
       </c>
       <c r="K26" s="17"/>
       <c r="M26" s="9">
-        <f t="shared" si="14"/>
+        <f>M25*(1/M$14)</f>
         <v>9.2592592592592613</v>
       </c>
       <c r="N26" s="5">
-        <f t="shared" si="15"/>
+        <f>MAX((N$23-0),(N25*(1/N$13)))</f>
         <v>400</v>
       </c>
       <c r="O26" s="2"/>
@@ -1609,11 +1642,11 @@
         <v>-2.6791838134430739E-2</v>
       </c>
       <c r="W26" s="9">
-        <f t="shared" si="16"/>
+        <f>W25*(1/W$14)</f>
         <v>9.2592592592592613</v>
       </c>
       <c r="X26" s="5">
-        <f t="shared" si="17"/>
+        <f>MAX((X$23-0),(X25*(1/X$13)))</f>
         <v>400</v>
       </c>
       <c r="Z26" s="13">
@@ -1645,7 +1678,7 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
-    <row r="30" spans="2:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1661,18 +1694,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:31" x14ac:dyDescent="0.2">
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
     </row>
-    <row r="32" spans="2:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="27">
         <v>1.0669999999999999</v>
       </c>
       <c r="L32" s="1" t="s">
@@ -1692,57 +1725,57 @@
         <v>1.0669999999999999</v>
       </c>
     </row>
-    <row r="33" spans="4:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:28" x14ac:dyDescent="0.2">
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
     </row>
-    <row r="34" spans="4:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:28" x14ac:dyDescent="0.2">
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
-    <row r="35" spans="4:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:28" x14ac:dyDescent="0.2">
       <c r="D35" s="5">
-        <f t="shared" ref="D35:D41" si="18">MIN((D$42+100),(D36*D$32))</f>
+        <f t="shared" ref="D35:D41" si="12">MIN((D$42+100),(D36*D$32))</f>
         <v>420</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="5">
-        <f t="shared" ref="N35:N41" si="19">MIN((N$42+100),(N36*N$32))</f>
+        <f t="shared" ref="N35:N41" si="13">MIN((N$42+100),(N36*N$32))</f>
         <v>420</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="X35" s="5">
-        <f t="shared" ref="X35:X41" si="20">MIN((X$42+100),(X36*X$32))</f>
+        <f t="shared" ref="X35:X41" si="14">MIN((X$42+100),(X36*X$32))</f>
         <v>420</v>
       </c>
     </row>
-    <row r="36" spans="4:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:28" x14ac:dyDescent="0.2">
       <c r="D36" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>420</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>420</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="X36" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>420</v>
       </c>
     </row>
-    <row r="37" spans="4:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:28" x14ac:dyDescent="0.2">
       <c r="D37" s="5">
         <f>MIN((D$42+100),(D38*D$32))</f>
         <v>420</v>
@@ -1769,77 +1802,77 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="4:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:28" x14ac:dyDescent="0.2">
       <c r="D38" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>414.77030499871995</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>414.77030499871995</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="X38" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>414.77030499871995</v>
       </c>
     </row>
-    <row r="39" spans="4:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:28" x14ac:dyDescent="0.2">
       <c r="D39" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>388.72568415999996</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>388.72568415999996</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="X39" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>388.72568415999996</v>
       </c>
     </row>
-    <row r="40" spans="4:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:28" x14ac:dyDescent="0.2">
       <c r="D40" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>364.31647999999996</v>
       </c>
       <c r="N40" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>364.31647999999996</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="X40" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>364.31647999999996</v>
       </c>
     </row>
-    <row r="41" spans="4:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:28" x14ac:dyDescent="0.2">
       <c r="D41" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>341.44</v>
       </c>
       <c r="N41" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>341.44</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="X41" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>341.44</v>
       </c>
     </row>
-    <row r="42" spans="4:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:28" x14ac:dyDescent="0.2">
       <c r="D42" s="6">
         <f>C23*20</f>
         <v>320</v>
@@ -1865,7 +1898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="4:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:28" x14ac:dyDescent="0.2">
       <c r="D43" s="5">
         <f>MAX((D$42-100),D42*(1/D$32))</f>
         <v>299.90627928772261</v>
@@ -1882,33 +1915,33 @@
         <v>299.90627928772261</v>
       </c>
     </row>
-    <row r="44" spans="4:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:28" x14ac:dyDescent="0.2">
       <c r="D44" s="5">
-        <f t="shared" ref="D44:D45" si="21">MAX((D$42-100),D43*(1/D$32))</f>
+        <f>MAX((D$42-100),D43*(1/D$32))</f>
         <v>281.0743011131421</v>
       </c>
       <c r="N44" s="5">
-        <f t="shared" ref="N44:N45" si="22">MAX((N$42-100),N43*(1/N$32))</f>
+        <f>MAX((N$42-100),N43*(1/N$32))</f>
         <v>281.0743011131421</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="X44" s="5">
-        <f t="shared" ref="X44:X45" si="23">MAX((X$42-100),X43*(1/X$32))</f>
+        <f>MAX((X$42-100),X43*(1/X$32))</f>
         <v>281.0743011131421</v>
       </c>
     </row>
-    <row r="45" spans="4:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:28" x14ac:dyDescent="0.2">
       <c r="D45" s="5">
-        <f t="shared" si="21"/>
+        <f>MAX((D$42-100),D44*(1/D$32))</f>
         <v>263.42483703199821</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>12</v>
       </c>
       <c r="N45" s="5">
-        <f t="shared" si="22"/>
+        <f>MAX((N$42-100),N44*(1/N$32))</f>
         <v>263.42483703199821</v>
       </c>
       <c r="O45" s="2"/>
@@ -1918,7 +1951,7 @@
         <v>12</v>
       </c>
       <c r="X45" s="5">
-        <f t="shared" si="23"/>
+        <f>MAX((X$42-100),X44*(1/X$32))</f>
         <v>263.42483703199821</v>
       </c>
       <c r="AB45" s="4" t="s">

--- a/meta/Type Calculations.xlsx
+++ b/meta/Type Calculations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skipbaker/Tresors/Software/jbkr/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93DF35A1-E1DE-7E4F-A3D7-5AAFC287366C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFCA3BF-6515-0349-B4B2-FCDDC005F2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38380" windowHeight="20600" xr2:uid="{B37BC8AA-E6DA-F14C-8CD6-2B9EC2ABA39B}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Base msmt_x0009__x0009__x0009_Base x .004_x000a__x0009__x0009__x0009__x000a_4_x0009__x0009_" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -347,7 +346,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -681,9 +680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EA2717-3D64-E04C-BB93-CD6E932FFCC0}">
   <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
